--- a/biology/Biochimie/Caspase_7/Caspase_7.xlsx
+++ b/biology/Biochimie/Caspase_7/Caspase_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La caspase 7 est une protéase à cystéine de la famille des caspases (de l'anglais cysteine-dependent aspartate-directed proteases) qui catalyse le clivage des chaînes polypeptidiques au niveau de séquences ayant un résidu d'aspartate en P1, avec une préférence pour la séquence Asp–Glu–Val–Asp-|-. Elle est codée chez l'homme par le gène CASP7, situé sur le chromosome 10. Des orthologues de ce gène ont été identifiés chez presque tous les mammifères pour lesquels des données génomiques complètes sont disponibles. Des orthologues spécifiques ont également été relevés chez les oiseaux, les sauriens, les lissamphibiens et les téléostéens.
